--- a/Interview Prep v2.0 - Schedule, Tracking.xlsx
+++ b/Interview Prep v2.0 - Schedule, Tracking.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning_Aug_2025\final_gen_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenAI-Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C0D152-B37A-4AB1-AB52-6D791F666C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717BDE8-A4CD-4193-AD2F-43530E73C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="826" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="826" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracks v1.0" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Tracks v2.0" sheetId="11" r:id="rId2"/>
     <sheet name="Track - 1 LLM-FT" sheetId="6" r:id="rId3"/>
-    <sheet name="Track - 2 System Design" sheetId="9" r:id="rId4"/>
-    <sheet name="Track - 3 LLMOps" sheetId="3" r:id="rId5"/>
-    <sheet name="Track - 4 Deep Learning" sheetId="4" r:id="rId6"/>
-    <sheet name="Track - 5 RAG_DB_Frw_Ops" sheetId="2" r:id="rId7"/>
-    <sheet name="Track - 6 BOND projects" sheetId="5" r:id="rId8"/>
-    <sheet name="Track - 7 Evolution of LLM" sheetId="7" r:id="rId9"/>
+    <sheet name="Resume" sheetId="12" r:id="rId4"/>
+    <sheet name="Track - 2 System Design" sheetId="9" r:id="rId5"/>
+    <sheet name="Track - 3 LLMOps" sheetId="3" r:id="rId6"/>
+    <sheet name="Track - 4 Deep Learning" sheetId="4" r:id="rId7"/>
+    <sheet name="Track - 5 RAG_DB_Frw_Ops" sheetId="2" r:id="rId8"/>
+    <sheet name="Track - 6 BOND projects" sheetId="5" r:id="rId9"/>
+    <sheet name="Track - 7 Evolution of LLM" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,12 +38,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>Track</t>
   </si>
@@ -481,6 +485,46 @@
   </si>
   <si>
     <t>continue in v3 at 0:35</t>
+  </si>
+  <si>
+    <t>Mention the business value produced by the project and the reason behind the tech stack selection</t>
+  </si>
+  <si>
+    <t>Interview strategy</t>
+  </si>
+  <si>
+    <t>make use of prior experience</t>
+  </si>
+  <si>
+    <t>Build the use case in HealthTech. Convert Lexiflow into HealthTech project</t>
+  </si>
+  <si>
+    <t>Build the protfolio in HealthTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on HLD - How to implement, design, build, how to make is scalable, how to productionize, </t>
+  </si>
+  <si>
+    <t>To gain above all the experiences refer the LLMOps batch projects in-depth</t>
+  </si>
+  <si>
+    <t>Talk about the use cases, business value</t>
+  </si>
+  <si>
+    <t>How to make revenue</t>
+  </si>
+  <si>
+    <t>How to reduce the cost</t>
+  </si>
+  <si>
+    <t>Mention only 1 personal project in resume</t>
+  </si>
+  <si>
+    <t>continue from 1:36
+6 Sept Day - 17 Building the retrieval pipeline Part - 2</t>
+  </si>
+  <si>
+    <t>resume</t>
   </si>
 </sst>
 </file>
@@ -565,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,6 +702,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,19 +992,19 @@
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="7.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="4" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="12.81640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="84" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="84" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="156" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="132" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1160,6 +1207,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E9C763-3B69-4BAD-AA60-BDDD4BCDB18E}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1174,19 +1236,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="7.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="4" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="1"/>
+    <col min="7" max="7" width="15.1796875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1328,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="72" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1368,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="84" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="24" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1359,21 +1421,21 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="6" width="28.81640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
@@ -1396,7 +1458,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>45914</v>
       </c>
@@ -1419,7 +1481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <f>A2+1</f>
         <v>45915</v>
@@ -1443,7 +1505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>45916</v>
@@ -1467,7 +1529,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>45917</v>
@@ -1481,151 +1543,151 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>45918</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>45919</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>45920</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>45922</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>45923</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>45925</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>45926</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>45927</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>45928</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>45929</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>45930</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>45931</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>45933</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>45934</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>45935</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>45936</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>45937</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>45938</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>45939</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>45940</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>45941</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>45942</v>
@@ -1637,6 +1699,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359BF5DE-4DDE-46F6-835C-DDC3211CF47D}">
+  <dimension ref="B2:B16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B85E7B-5567-4E86-917F-A1F33D398FDB}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -1647,17 +1779,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="6" width="28.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="5" max="6" width="28.81640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
@@ -1680,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>45913</v>
       </c>
@@ -1703,7 +1835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>45915</v>
       </c>
@@ -1726,7 +1858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>45919</v>
       </c>
@@ -1749,7 +1881,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>45920</v>
       </c>
@@ -1768,28 +1900,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D06BD-D30A-4CC9-A1DD-C5AE95450496}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="7" max="7" width="44.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
@@ -1812,7 +1944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>45914</v>
       </c>
@@ -1835,7 +1967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <f>A2+1</f>
         <v>45915</v>
@@ -1859,7 +1991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>45916</v>
@@ -1883,7 +2015,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>45917</v>
@@ -1907,19 +2039,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>45918</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>45919</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>45920</v>
@@ -1928,133 +2060,151 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>45921</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>45922</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>45923</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>45925</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>45926</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>45927</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>45928</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>45929</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>45930</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>45931</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>45933</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>45934</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>45935</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>45936</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>45937</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>45938</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>45939</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>45940</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>45941</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>45942</v>
@@ -2065,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E12F55-00C6-4ACD-808C-F37BC58E72E3}">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
@@ -2076,18 +2226,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>43</v>
       </c>
@@ -2110,7 +2260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>45913</v>
       </c>
@@ -2133,7 +2283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>45914</v>
       </c>
@@ -2156,7 +2306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <f>A3+1</f>
         <v>45915</v>
@@ -2180,7 +2330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <f t="shared" ref="A5:A31" si="0">A4+1</f>
         <v>45916</v>
@@ -2192,7 +2342,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <f t="shared" si="0"/>
         <v>45917</v>
@@ -2204,7 +2354,7 @@
       <c r="F6" s="30"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <f t="shared" si="0"/>
         <v>45918</v>
@@ -2216,7 +2366,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="27">
         <f t="shared" si="0"/>
         <v>45919</v>
@@ -2228,7 +2378,7 @@
       <c r="F8" s="30"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>45920</v>
@@ -2240,7 +2390,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>45921</v>
@@ -2252,7 +2402,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>45922</v>
@@ -2264,7 +2414,7 @@
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>45923</v>
@@ -2276,7 +2426,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>45924</v>
@@ -2288,7 +2438,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>45925</v>
@@ -2300,7 +2450,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>45926</v>
@@ -2312,7 +2462,7 @@
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="27">
         <f t="shared" si="0"/>
         <v>45927</v>
@@ -2324,7 +2474,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="27">
         <f t="shared" si="0"/>
         <v>45928</v>
@@ -2336,7 +2486,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>45929</v>
@@ -2348,7 +2498,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>45930</v>
@@ -2360,7 +2510,7 @@
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -2372,7 +2522,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>45932</v>
@@ -2384,7 +2534,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>45933</v>
@@ -2396,7 +2546,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <f t="shared" si="0"/>
         <v>45934</v>
@@ -2410,7 +2560,7 @@
       </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="27">
         <f t="shared" si="0"/>
         <v>45935</v>
@@ -2424,7 +2574,7 @@
       </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="27">
         <f t="shared" si="0"/>
         <v>45936</v>
@@ -2436,7 +2586,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="27">
         <f t="shared" si="0"/>
         <v>45937</v>
@@ -2448,7 +2598,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="27">
         <f t="shared" si="0"/>
         <v>45938</v>
@@ -2460,7 +2610,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>45939</v>
@@ -2472,7 +2622,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="27">
         <f t="shared" si="0"/>
         <v>45940</v>
@@ -2484,7 +2634,7 @@
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="27">
         <f t="shared" si="0"/>
         <v>45941</v>
@@ -2496,7 +2646,7 @@
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>45942</v>
@@ -2513,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF96283-60E1-4E20-8FED-59522DB8182E}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2524,14 +2674,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
@@ -2554,7 +2704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>45915</v>
       </c>
@@ -2577,7 +2727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <f>A2+1</f>
         <v>45916</v>
@@ -2601,7 +2751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>45917</v>
@@ -2617,7 +2767,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <f t="shared" si="0"/>
         <v>45918</v>
@@ -2633,73 +2783,73 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>45919</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <f t="shared" si="0"/>
         <v>45920</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>45921</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>45922</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>45923</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>45924</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>45925</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>45926</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>45927</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>45928</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>45929</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>45930</v>
@@ -2708,7 +2858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -2717,13 +2867,13 @@
         <v>8668948313</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>45932</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>45933</v>
@@ -2732,7 +2882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>45934</v>
@@ -2741,61 +2891,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>45935</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>45936</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>45937</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>45938</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>45939</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>45940</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>45941</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>45942</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32"/>
     </row>
   </sheetData>
@@ -2803,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6064C6A6-1078-491B-948D-D05DB053324B}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -2812,22 +2962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E9C763-3B69-4BAD-AA60-BDDD4BCDB18E}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Interview Prep v2.0 - Schedule, Tracking.xlsx
+++ b/Interview Prep v2.0 - Schedule, Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GenAI-Interview-Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717BDE8-A4CD-4193-AD2F-43530E73C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A2F79-8EB1-4C08-A59E-9C9072248318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="826" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
   <si>
     <t>Track</t>
   </si>
@@ -525,6 +525,20 @@
   </si>
   <si>
     <t>resume</t>
+  </si>
+  <si>
+    <t>start with:
+13 Sept Day - 19 Agentic rag implementation part 1</t>
+  </si>
+  <si>
+    <t>7 Sept Day - 18 Testing the end to end flow with ui and api</t>
+  </si>
+  <si>
+    <t>continue from: 41:00
+13 Sept Day - 19 Agentic rag implementation part 1</t>
+  </si>
+  <si>
+    <t>end to end RAG flow with agent</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1922,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2090,16 +2104,52 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>45923</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>45924</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
